--- a/medicine/Mort/Nécropole_nationale_d'Hattencourt/Nécropole_nationale_d'Hattencourt.xlsx
+++ b/medicine/Mort/Nécropole_nationale_d'Hattencourt/Nécropole_nationale_d'Hattencourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_d%27Hattencourt</t>
+          <t>Nécropole_nationale_d'Hattencourt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale d'Hattencourtt est un cimetière militaire français de la Première Guerre mondiale situé sur le territoire de la commune d' Hattencourt, dans le département de la Somme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_d%27Hattencourt</t>
+          <t>Nécropole_nationale_d'Hattencourt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale d'Hattencourt est située dans l'est du département de la Somme, au nord de Roye, au bord de la route départementale 132.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_d%27Hattencourt</t>
+          <t>Nécropole_nationale_d'Hattencourt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La création de la nécropole nationale d'Hattencourt date de 1920[1]. On y a rassemblé des dépouilles de soldats exhumées de différents lieux du département de la Somme[2].
-En 1951, y furent transférés des dépouilles de soldats de la Seconde Guerre mondiale exhumés d'autres lieux du département[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La création de la nécropole nationale d'Hattencourt date de 1920. On y a rassemblé des dépouilles de soldats exhumées de différents lieux du département de la Somme.
+En 1951, y furent transférés des dépouilles de soldats de la Seconde Guerre mondiale exhumés d'autres lieux du département
 En 1960-1961, eut lieu l'inhumation de corps de soldats de la Grande Guerre découverts sur l'ancien champ de bataille de la Somme.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_d%27Hattencourt</t>
+          <t>Nécropole_nationale_d'Hattencourt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une superficie de 0,61 ha, la nécropole rassemble 1 949 dépouilles dont 1 282 en tombes individuelles et 667 en quatre ossuaires[4]. Parmi eux, 1 942 sont des Français morts pendant la Première Guerre mondiale, deux soldats russes reposent également dans ce cimetière. Cinq soldats français de la Seconde Guerre mondiale sont venus les y rejoindre[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une superficie de 0,61 ha, la nécropole rassemble 1 949 dépouilles dont 1 282 en tombes individuelles et 667 en quatre ossuaires. Parmi eux, 1 942 sont des Français morts pendant la Première Guerre mondiale, deux soldats russes reposent également dans ce cimetière. Cinq soldats français de la Seconde Guerre mondiale sont venus les y rejoindre.
 </t>
         </is>
       </c>
